--- a/Cspecs.xlsx
+++ b/Cspecs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laubr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laubr\Desktop\projet poker\Poker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5AADF788-170E-4987-9B7B-324EB0A17573}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4FE3BD0D-6452-476F-9919-571D83ED4BF6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{17C324D7-EC0A-4407-B813-DAAD437C8DEF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>Lucas AUBRON</t>
   </si>
@@ -145,6 +145,33 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>Le jeu affiche deux cartes et indique laquelle est la plus haute</t>
+  </si>
+  <si>
+    <t>Le jeu affiche deux mains de cinq cartes et indique laquelle est la plus forte sans tenir compte des combinaisons: suite, couleur, full, carré et quinte flush</t>
+  </si>
+  <si>
+    <t>Le jeu affiche deux mains de cinq cartes et indique laquelle est la plus forte sans tenir compte des combinaisons: couleur, full, carré et quinte flush</t>
+  </si>
+  <si>
+    <t>Le jeu affiche deux mains de cinq cartes et indique laquelle est la plus forte sans tenir compte des combinaisons: full, carré et quinte flush</t>
+  </si>
+  <si>
+    <t>Le jeu affiche deux mains de cinq cartes et indique laquelle est la plus forte sans tenir compte de la combinaison: quinte flush</t>
+  </si>
+  <si>
+    <t>Le jeu affiche deux mains de cinq cartes et indique laquelle est la plus forte en prenant en compte toutes les règles du poker.</t>
+  </si>
+  <si>
+    <t>Le jeu affiche deux mains de cinq cartes et indique laquelle est la plus forte sans tenir compte des combinaisons: brelan, suite, couleur, full, carré et quinte flush</t>
+  </si>
+  <si>
+    <t>Le jeu affiche deux mains de cinq cartes et indique laquelle est la plus forte sans tenir compte de la combinaison: couleur</t>
+  </si>
+  <si>
+    <t>Le jeu affiche deux mains de cinq cartes et indique laquelle est la plus forte sans tenir compte des combinaisons: double paire et couleur</t>
   </si>
 </sst>
 </file>
@@ -502,7 +529,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,7 +537,7 @@
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="152.28515625" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
     <col min="8" max="8" width="21.5703125" customWidth="1"/>
@@ -561,6 +588,12 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
       <c r="G2" t="s">
         <v>37</v>
       </c>
@@ -578,6 +611,12 @@
       <c r="D3" t="s">
         <v>2</v>
       </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
       <c r="G3" t="s">
         <v>38</v>
       </c>
@@ -595,6 +634,12 @@
       <c r="D4" t="s">
         <v>2</v>
       </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
       <c r="G4" t="s">
         <v>38</v>
       </c>
@@ -612,6 +657,12 @@
       <c r="D5" t="s">
         <v>1</v>
       </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
       <c r="G5" t="s">
         <v>37</v>
       </c>
@@ -629,6 +680,12 @@
       <c r="D6" t="s">
         <v>0</v>
       </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
       <c r="G6" t="s">
         <v>38</v>
       </c>
@@ -646,6 +703,12 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
       <c r="G7" t="s">
         <v>37</v>
       </c>
@@ -663,6 +726,12 @@
       <c r="D8" t="s">
         <v>3</v>
       </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
       <c r="G8" t="s">
         <v>38</v>
       </c>
@@ -680,6 +749,12 @@
       <c r="D9" t="s">
         <v>3</v>
       </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
       <c r="G9" t="s">
         <v>37</v>
       </c>
@@ -697,6 +772,12 @@
       <c r="D10" t="s">
         <v>14</v>
       </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
       <c r="G10" t="s">
         <v>37</v>
       </c>
@@ -714,6 +795,12 @@
       <c r="D11" t="s">
         <v>1</v>
       </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
@@ -730,6 +817,12 @@
       </c>
       <c r="D12" t="s">
         <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
       </c>
       <c r="G12" t="s">
         <v>37</v>
